--- a/data/scheduling_DNN/predict/0.1/result28.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result28.xlsx
@@ -570,10 +570,10 @@
         <v>0.8995819091796875</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.529994010925293</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1413998752832413</v>
+        <v>0.136595219373703</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9699740409851074</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.479990541934967</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3458178043365479</v>
+        <v>0.2400838285684586</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9601809978485107</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.8675445318222046</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1972339302301407</v>
+        <v>0.008581514470279217</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8822228908538818</v>
       </c>
       <c r="V5" t="n">
-        <v>0.43533855676651</v>
+        <v>0.9582165479660034</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1997056007385254</v>
+        <v>0.005775035824626684</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8778610229492188</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.9034934639930725</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1091962158679962</v>
+        <v>0.0006570220575667918</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8636248111724854</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.507595956325531</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08755645155906677</v>
+        <v>0.1267565488815308</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9154410362243652</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.5046748518943787</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0866909995675087</v>
+        <v>0.1687288582324982</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8817811012268066</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.9503567814826965</v>
       </c>
       <c r="W9" t="n">
-        <v>0.06565424054861069</v>
+        <v>0.004702623933553696</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8662869930267334</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.4799226522445679</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1743615716695786</v>
+        <v>0.1492774039506912</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8588380813598633</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.8876328468322754</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1790017038583755</v>
+        <v>0.0008291385020129383</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9117059707641602</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.5295604467391968</v>
       </c>
       <c r="W12" t="n">
-        <v>0.09428123384714127</v>
+        <v>0.1460351943969727</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8760831356048584</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.5124337673187256</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04806923866271973</v>
+        <v>0.1322408616542816</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8658130168914795</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.9138785004615784</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09805914759635925</v>
+        <v>0.002310290699824691</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8962280750274658</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.8829889893531799</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1178740337491035</v>
+        <v>0.0001752733951434493</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9385001659393311</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.5301359891891479</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08785328269004822</v>
+        <v>0.1667612940073013</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8796119689941406</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.5563502311706543</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0654657855629921</v>
+        <v>0.1044981479644775</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8684499263763428</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.4874632954597473</v>
       </c>
       <c r="W18" t="n">
-        <v>0.06335039436817169</v>
+        <v>0.1451508104801178</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8559160232543945</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5842562913894653</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01417864300310612</v>
+        <v>0.0737990066409111</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9350600242614746</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.5820739269256592</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2270524501800537</v>
+        <v>0.1245991885662079</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8802990913391113</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.499603807926178</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1395339518785477</v>
+        <v>0.144928902387619</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5403990745544434</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.4968251585960388</v>
       </c>
       <c r="W22" t="n">
-        <v>0.004208116792142391</v>
+        <v>0.001898686168715358</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5328631401062012</v>
       </c>
       <c r="V23" t="n">
-        <v>0.624763011932373</v>
+        <v>0.477952778339386</v>
       </c>
       <c r="W23" t="n">
-        <v>0.008445586077868938</v>
+        <v>0.003015147754922509</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5440211296081543</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.5324810743331909</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01309808809310198</v>
+        <v>0.0001331728708464652</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5450491905212402</v>
       </c>
       <c r="V25" t="n">
-        <v>0.473088413476944</v>
+        <v>0.8964046835899353</v>
       </c>
       <c r="W25" t="n">
-        <v>0.005178353283554316</v>
+        <v>0.1234506815671921</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5298938751220703</v>
       </c>
       <c r="V26" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.5114263892173767</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05017668381333351</v>
+        <v>0.0003410480276215822</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5152440071105957</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.9438558220863342</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0002022761909756809</v>
+        <v>0.1837080866098404</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5211730003356934</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.5034509897232056</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0005073627689853311</v>
+        <v>0.0003140696499031037</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5253818035125732</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.8978268504142761</v>
       </c>
       <c r="W29" t="n">
-        <v>0.003022545948624611</v>
+        <v>0.1387153118848801</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5464959144592285</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.467499852180481</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0368628203868866</v>
+        <v>0.00624037766829133</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5121359825134277</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.5300796031951904</v>
       </c>
       <c r="W31" t="n">
-        <v>0.002956840908154845</v>
+        <v>0.0003219735226593912</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5536389350891113</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.4688546061515808</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01393190678209066</v>
+        <v>0.007188382558524609</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5168299674987793</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.5298171639442444</v>
       </c>
       <c r="W33" t="n">
-        <v>0.006530426442623138</v>
+        <v>0.0001686672767391428</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5245449542999268</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.4792153835296631</v>
       </c>
       <c r="W34" t="n">
-        <v>0.007835846394300461</v>
+        <v>0.002054770011454821</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5720069408416748</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.4804151654243469</v>
       </c>
       <c r="W35" t="n">
-        <v>0.007173073478043079</v>
+        <v>0.00838905293494463</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5143082141876221</v>
       </c>
       <c r="V36" t="n">
-        <v>0.474732518196106</v>
+        <v>0.4709339737892151</v>
       </c>
       <c r="W36" t="n">
-        <v>0.001566235674545169</v>
+        <v>0.00188132468611002</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5143427848815918</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.4774248600006104</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01282051764428616</v>
+        <v>0.001362933195196092</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5154509544372559</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.4634857773780823</v>
       </c>
       <c r="W38" t="n">
-        <v>0.002439668169245124</v>
+        <v>0.002700379583984613</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.510200023651123</v>
       </c>
       <c r="V39" t="n">
-        <v>0.473930835723877</v>
+        <v>0.4781104326248169</v>
       </c>
       <c r="W39" t="n">
-        <v>0.00131545402109623</v>
+        <v>0.001029741833917797</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5115349292755127</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.4966709017753601</v>
       </c>
       <c r="W40" t="n">
-        <v>0.002304060850292444</v>
+        <v>0.000220939313294366</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5275828838348389</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.9307515621185303</v>
       </c>
       <c r="W41" t="n">
-        <v>0.002878897357732058</v>
+        <v>0.1625449806451797</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4109911918640137</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.4789957404136658</v>
       </c>
       <c r="W42" t="n">
-        <v>0.001948295859619975</v>
+        <v>0.00462461868301034</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.408499002456665</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.5115273594856262</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0007576359203085303</v>
+        <v>0.01061484217643738</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3895950317382812</v>
       </c>
       <c r="V44" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.9161204695701599</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1203968375921249</v>
+        <v>0.2772290408611298</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3827497959136963</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.5846444964408875</v>
       </c>
       <c r="W45" t="n">
-        <v>0.07698086649179459</v>
+        <v>0.04076147079467773</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3856499195098877</v>
       </c>
       <c r="V46" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.5098808407783508</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1152733266353607</v>
+        <v>0.01543332170695066</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4084460735321045</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5241943001747131</v>
       </c>
       <c r="W47" t="n">
-        <v>0.02150816842913628</v>
+        <v>0.01339765172451735</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3911960124969482</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.5849679112434387</v>
       </c>
       <c r="W48" t="n">
-        <v>0.004098278935998678</v>
+        <v>0.03754754737019539</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3877451419830322</v>
       </c>
       <c r="V49" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.5120630264282227</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1895627826452255</v>
+        <v>0.01545493677258492</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3827140331268311</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.9396140575408936</v>
       </c>
       <c r="W50" t="n">
-        <v>0.005600469186902046</v>
+        <v>0.3101376295089722</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3853330612182617</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.9515392184257507</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01342353597283363</v>
+        <v>0.3205894231796265</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3924651145935059</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.4969702363014221</v>
       </c>
       <c r="W52" t="n">
-        <v>5.604475063591963e-06</v>
+        <v>0.01092132087796926</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.4346969127655029</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.4856436252593994</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01371268928050995</v>
+        <v>0.002595567610114813</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3878750801086426</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.467976987361908</v>
       </c>
       <c r="W54" t="n">
-        <v>0.004984772764146328</v>
+        <v>0.00641631567850709</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3844199180603027</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.4680133461952209</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0026627485640347</v>
+        <v>0.006987861357629299</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3857171535491943</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.5847315192222595</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01346168294548988</v>
+        <v>0.03960671648383141</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3863620758056641</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.9167661070823669</v>
       </c>
       <c r="W57" t="n">
-        <v>0.06622624397277832</v>
+        <v>0.2813284397125244</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.38543701171875</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.4861618876457214</v>
       </c>
       <c r="W58" t="n">
-        <v>0.07355289906263351</v>
+        <v>0.01014550030231476</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.4391679763793945</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.5299704074859619</v>
       </c>
       <c r="W59" t="n">
-        <v>0.0003506047069095075</v>
+        <v>0.008245081640779972</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3881559371948242</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.9109867215156555</v>
       </c>
       <c r="W60" t="n">
-        <v>0.004519314039498568</v>
+        <v>0.2733520269393921</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3868780136108398</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.5298616290092468</v>
       </c>
       <c r="W61" t="n">
-        <v>0.05378423258662224</v>
+        <v>0.02044431492686272</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8713829517364502</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.4825805425643921</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1011524796485901</v>
+        <v>0.1511673182249069</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8790791034698486</v>
       </c>
       <c r="V63" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.5299117565155029</v>
       </c>
       <c r="W63" t="n">
-        <v>0.003636017208918929</v>
+        <v>0.121917836368084</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9106390476226807</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.4898698925971985</v>
       </c>
       <c r="W64" t="n">
-        <v>0.06354719400405884</v>
+        <v>0.1770466864109039</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8579719066619873</v>
       </c>
       <c r="V65" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5069875717163086</v>
       </c>
       <c r="W65" t="n">
-        <v>0.0546095222234726</v>
+        <v>0.1231900006532669</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8853330612182617</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.5011110305786133</v>
       </c>
       <c r="W66" t="n">
-        <v>0.07089789211750031</v>
+        <v>0.1476265639066696</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8596880435943604</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.8978998064994812</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1546943336725235</v>
+        <v>0.001460138824768364</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9237408638000488</v>
       </c>
       <c r="V68" t="n">
-        <v>0.569115161895752</v>
+        <v>0.4974110126495361</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1257593929767609</v>
+        <v>0.1817571371793747</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8601500988006592</v>
       </c>
       <c r="V69" t="n">
-        <v>0.504918098449707</v>
+        <v>0.4804047346115112</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1261897683143616</v>
+        <v>0.1442065387964249</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8598289489746094</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.512517511844635</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1650393009185791</v>
+        <v>0.1206252351403236</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8605759143829346</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.9144845604896545</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1805333495140076</v>
+        <v>0.002906142035499215</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9218680858612061</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.529577374458313</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1764753311872482</v>
+        <v>0.153891995549202</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8634340763092041</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.5090621709823608</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1646527349948883</v>
+        <v>0.125579446554184</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8674938678741455</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.5099842548370361</v>
       </c>
       <c r="W74" t="n">
-        <v>0.186163067817688</v>
+        <v>0.1278131306171417</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8587491512298584</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.947098433971405</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1603723466396332</v>
+        <v>0.007805595640093088</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9295041561126709</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.6406223773956299</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2435228675603867</v>
+        <v>0.08345267921686172</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8605320453643799</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.5140780806541443</v>
       </c>
       <c r="W77" t="n">
-        <v>0.09645047038793564</v>
+        <v>0.1200303509831429</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8665120601654053</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.5208362936973572</v>
       </c>
       <c r="W78" t="n">
-        <v>0.08865641057491302</v>
+        <v>0.11949173361063</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8927500247955322</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.8973036408424377</v>
       </c>
       <c r="W79" t="n">
-        <v>0.208847850561142</v>
+        <v>2.07354187296005e-05</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9193720817565918</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.4862951040267944</v>
       </c>
       <c r="W80" t="n">
-        <v>0.06682322919368744</v>
+        <v>0.1875556707382202</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8628511428833008</v>
       </c>
       <c r="V81" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.5350812077522278</v>
       </c>
       <c r="W81" t="n">
-        <v>0.001947464537806809</v>
+        <v>0.107433132827282</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5392858982086182</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.4830897450447083</v>
       </c>
       <c r="W82" t="n">
-        <v>0.001233846414834261</v>
+        <v>0.003158007515594363</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5357880592346191</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.5840504765510559</v>
       </c>
       <c r="W83" t="n">
-        <v>0.000222350237891078</v>
+        <v>0.002329260809347034</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5199570655822754</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5323552489280701</v>
       </c>
       <c r="W84" t="n">
-        <v>0.002028774470090866</v>
+        <v>0.0001537149510113522</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5179939270019531</v>
       </c>
       <c r="V85" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4894141554832458</v>
       </c>
       <c r="W85" t="n">
-        <v>0.04566384106874466</v>
+        <v>0.0008168033673427999</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5204510688781738</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.497724711894989</v>
       </c>
       <c r="W86" t="n">
-        <v>0.003144623711705208</v>
+        <v>0.0005164872854948044</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.515531063079834</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.5324358344078064</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0003995487641077489</v>
+        <v>0.0002857712970580906</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5176911354064941</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.4932745099067688</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0004616167861968279</v>
+        <v>0.0005961715942248702</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5157589912414551</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.5238116383552551</v>
       </c>
       <c r="W89" t="n">
-        <v>0.000145660451380536</v>
+        <v>6.484512414317578e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5638771057128906</v>
       </c>
       <c r="V90" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.9472187757492065</v>
       </c>
       <c r="W90" t="n">
-        <v>0.06381245702505112</v>
+        <v>0.1469508409500122</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5216150283813477</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.4733350276947021</v>
       </c>
       <c r="W91" t="n">
-        <v>0.009596464224159718</v>
+        <v>0.002330958377569914</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5190351009368896</v>
       </c>
       <c r="V92" t="n">
-        <v>0.551807165145874</v>
+        <v>0.504723072052002</v>
       </c>
       <c r="W92" t="n">
-        <v>0.001074008177965879</v>
+        <v>0.000204834170290269</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5160300731658936</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.8948168158531189</v>
       </c>
       <c r="W93" t="n">
-        <v>0.001588219427503645</v>
+        <v>0.1434793919324875</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5161871910095215</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.5067931413650513</v>
       </c>
       <c r="W94" t="n">
-        <v>0.001696117571555078</v>
+        <v>8.824816904962063e-05</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5659351348876953</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.4682875275611877</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01687644422054291</v>
+        <v>0.009535055607557297</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5180850028991699</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.8763513565063477</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0106540210545063</v>
+        <v>0.1283547729253769</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5193839073181152</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.4995602965354919</v>
       </c>
       <c r="W97" t="n">
-        <v>0.00190407142508775</v>
+        <v>0.0003929755475837737</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.516585111618042</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.8804693818092346</v>
       </c>
       <c r="W98" t="n">
-        <v>0.001279923599213362</v>
+        <v>0.1324117630720139</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5163099765777588</v>
       </c>
       <c r="V99" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.9079119563102722</v>
       </c>
       <c r="W99" t="n">
-        <v>0.09112074226140976</v>
+        <v>0.1533521115779877</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5164961814880371</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.5609228014945984</v>
       </c>
       <c r="W100" t="n">
-        <v>0.001232860493473709</v>
+        <v>0.001973724458366632</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5191071033477783</v>
       </c>
       <c r="V101" t="n">
-        <v>0.816550612449646</v>
+        <v>0.8892726898193359</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0884726420044899</v>
+        <v>0.1370225548744202</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3992648124694824</v>
       </c>
       <c r="V102" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.5323982834815979</v>
       </c>
       <c r="W102" t="n">
-        <v>0.1118994727730751</v>
+        <v>0.01772452145814896</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4483058452606201</v>
       </c>
       <c r="V103" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.5539982318878174</v>
       </c>
       <c r="W103" t="n">
-        <v>0.08148767799139023</v>
+        <v>0.01117088086903095</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4074180126190186</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.8873417973518372</v>
       </c>
       <c r="W104" t="n">
-        <v>0.04757882282137871</v>
+        <v>0.230326846241951</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.3957810401916504</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.4808493256568909</v>
       </c>
       <c r="W105" t="n">
-        <v>0.06131559982895851</v>
+        <v>0.00723661296069622</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3837540149688721</v>
       </c>
       <c r="V106" t="n">
-        <v>0.618610143661499</v>
+        <v>0.506544828414917</v>
       </c>
       <c r="W106" t="n">
-        <v>0.05515740066766739</v>
+        <v>0.01507758349180222</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3882570266723633</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.8962844014167786</v>
       </c>
       <c r="W107" t="n">
-        <v>0.005812088027596474</v>
+        <v>0.2580918073654175</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3870830535888672</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.9345992207527161</v>
       </c>
       <c r="W108" t="n">
-        <v>0.05357316881418228</v>
+        <v>0.2997739613056183</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.4050898551940918</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.5350456237792969</v>
       </c>
       <c r="W109" t="n">
-        <v>0.002849699463695288</v>
+        <v>0.01688850112259388</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3943400382995605</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.530060887336731</v>
       </c>
       <c r="W110" t="n">
-        <v>0.03307009860873222</v>
+        <v>0.01842014864087105</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.397191047668457</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.5830133557319641</v>
       </c>
       <c r="W111" t="n">
-        <v>0.05146191269159317</v>
+        <v>0.03452993184328079</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4008119106292725</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.4683693647384644</v>
       </c>
       <c r="W112" t="n">
-        <v>0.03062890470027924</v>
+        <v>0.004564009606838226</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.4394669532775879</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.9249134659767151</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0003301369433756918</v>
+        <v>0.2356583178043365</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3909599781036377</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.9174047112464905</v>
       </c>
       <c r="W114" t="n">
-        <v>0.00453054066747427</v>
+        <v>0.2771440446376801</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3923289775848389</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.4931359887123108</v>
       </c>
       <c r="W115" t="n">
-        <v>0.03207643702626228</v>
+        <v>0.01016205362975597</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3862950801849365</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.5295820236206055</v>
       </c>
       <c r="W116" t="n">
-        <v>0.007118792738765478</v>
+        <v>0.02053114771842957</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3853738307952881</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.52997225522995</v>
       </c>
       <c r="W117" t="n">
-        <v>0.01396236568689346</v>
+        <v>0.02090870402753353</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4007699489593506</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.8942631483078003</v>
       </c>
       <c r="W118" t="n">
-        <v>0.02906766161322594</v>
+        <v>0.2435355335474014</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.4487299919128418</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.499553918838501</v>
       </c>
       <c r="W119" t="n">
-        <v>0.04173378273844719</v>
+        <v>0.00258307158946991</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4030859470367432</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.5300697684288025</v>
       </c>
       <c r="W120" t="n">
-        <v>0.07291653752326965</v>
+        <v>0.01612489111721516</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3998720645904541</v>
       </c>
       <c r="V121" t="n">
-        <v>0.57613205909729</v>
+        <v>0.5298500657081604</v>
       </c>
       <c r="W121" t="n">
-        <v>0.03106758557260036</v>
+        <v>0.01689428091049194</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8734807968139648</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.8821049332618713</v>
       </c>
       <c r="W122" t="n">
-        <v>0.03401447087526321</v>
+        <v>7.437572639901191e-05</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9794950485229492</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.8872766494750977</v>
       </c>
       <c r="W123" t="n">
-        <v>0.125122606754303</v>
+        <v>0.008504233323037624</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9272291660308838</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.50181645154953</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1791700422763824</v>
+        <v>0.1809759736061096</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8761489391326904</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.8978514671325684</v>
       </c>
       <c r="W125" t="n">
-        <v>0.09186519682407379</v>
+        <v>0.0004709997156169266</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8977329730987549</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.9498165845870972</v>
       </c>
       <c r="W126" t="n">
-        <v>0.05801916122436523</v>
+        <v>0.002712702611461282</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8631350994110107</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.8688828945159912</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1287495344877243</v>
+        <v>3.303714765934274e-05</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8644227981567383</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.4677268266677856</v>
       </c>
       <c r="W128" t="n">
-        <v>0.04727917164564133</v>
+        <v>0.1573676913976669</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8633098602294922</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.4669016599655151</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1825824975967407</v>
+        <v>0.157139465212822</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8597359657287598</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.623088538646698</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1281506270170212</v>
+        <v>0.05600200593471527</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.877918004989624</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.5971877574920654</v>
       </c>
       <c r="W131" t="n">
-        <v>0.06440338492393494</v>
+        <v>0.0788094699382782</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8692779541015625</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5298804640769958</v>
       </c>
       <c r="W132" t="n">
-        <v>0.187464252114296</v>
+        <v>0.1151906549930573</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8772718906402588</v>
       </c>
       <c r="V133" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5348279476165771</v>
       </c>
       <c r="W133" t="n">
-        <v>0.05455248430371284</v>
+        <v>0.1172678545117378</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8604459762573242</v>
       </c>
       <c r="V134" t="n">
-        <v>0.436027318239212</v>
+        <v>0.947681188583374</v>
       </c>
       <c r="W134" t="n">
-        <v>0.180131196975708</v>
+        <v>0.007609982043504715</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8821020126342773</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.9168655872344971</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1664071679115295</v>
+        <v>0.00120850617531687</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8710248470306396</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.9245876669883728</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2425481528043747</v>
+        <v>0.002868975745514035</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.992156982421875</v>
       </c>
       <c r="V137" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.4838345050811768</v>
       </c>
       <c r="W137" t="n">
-        <v>0.07144113630056381</v>
+        <v>0.2583917379379272</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8618462085723877</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4819084405899048</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1661202311515808</v>
+        <v>0.1443527042865753</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.9156229496002197</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.494875431060791</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2296818941831589</v>
+        <v>0.177028477191925</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8706269264221191</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.4809516072273254</v>
       </c>
       <c r="W140" t="n">
-        <v>0.09987610578536987</v>
+        <v>0.15184685587883</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.87027907371521</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.5123401284217834</v>
       </c>
       <c r="W141" t="n">
-        <v>0.06021294742822647</v>
+        <v>0.1281202882528305</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5346388816833496</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.8965120315551758</v>
       </c>
       <c r="W142" t="n">
-        <v>0.007965344004333019</v>
+        <v>0.1309521794319153</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5207669734954834</v>
       </c>
       <c r="V143" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.8793770670890808</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01693420298397541</v>
+        <v>0.1286011934280396</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5735490322113037</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.4933183789253235</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01438951771706343</v>
+        <v>0.006436957512050867</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5191099643707275</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.4822925925254822</v>
       </c>
       <c r="W145" t="n">
-        <v>0.005940855015069246</v>
+        <v>0.001355518819764256</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5204861164093018</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.9290916323661804</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0003439093416091055</v>
+        <v>0.1669584661722183</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5392839908599854</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.4901942610740662</v>
       </c>
       <c r="W147" t="n">
-        <v>0.01061699818819761</v>
+        <v>0.00240980158559978</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5188689231872559</v>
       </c>
       <c r="V148" t="n">
-        <v>0.458252340555191</v>
+        <v>0.9226340651512146</v>
       </c>
       <c r="W148" t="n">
-        <v>0.003674370003864169</v>
+        <v>0.163026288151741</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5620100498199463</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.480495810508728</v>
       </c>
       <c r="W149" t="n">
-        <v>7.16308641131036e-05</v>
+        <v>0.006644571200013161</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5212180614471436</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.5532255172729492</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0002957741671707481</v>
+        <v>0.001024477183818817</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.514441967010498</v>
       </c>
       <c r="V151" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.9257578253746033</v>
       </c>
       <c r="W151" t="n">
-        <v>0.08849136531352997</v>
+        <v>0.1691807359457016</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5230338573455811</v>
       </c>
       <c r="V152" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.4842076897621155</v>
       </c>
       <c r="W152" t="n">
-        <v>0.05024437233805656</v>
+        <v>0.001507471315562725</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5164499282836914</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.4819275140762329</v>
       </c>
       <c r="W153" t="n">
-        <v>0.0008806838886812329</v>
+        <v>0.00119179708417505</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5157740116119385</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.9002268314361572</v>
       </c>
       <c r="W154" t="n">
-        <v>0.002494577085599303</v>
+        <v>0.1478039771318436</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5200760364532471</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.875224232673645</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01876324228942394</v>
+        <v>0.1261302381753922</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5208590030670166</v>
       </c>
       <c r="V156" t="n">
-        <v>0.471180647611618</v>
+        <v>0.8771297335624695</v>
       </c>
       <c r="W156" t="n">
-        <v>0.002467938931658864</v>
+        <v>0.126928836107254</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.520766019821167</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4807341694831848</v>
       </c>
       <c r="W157" t="n">
-        <v>0.002302052918821573</v>
+        <v>0.001602548989467323</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5157461166381836</v>
       </c>
       <c r="V158" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.4799655675888062</v>
       </c>
       <c r="W158" t="n">
-        <v>0.08786367624998093</v>
+        <v>0.001280247699469328</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5134131908416748</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.4808975458145142</v>
       </c>
       <c r="W159" t="n">
-        <v>0.005990017205476761</v>
+        <v>0.001057267189025879</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5713281631469727</v>
       </c>
       <c r="V160" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.4677537679672241</v>
       </c>
       <c r="W160" t="n">
-        <v>0.02597308158874512</v>
+        <v>0.0107276551425457</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.522662878036499</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.4882605671882629</v>
       </c>
       <c r="W161" t="n">
-        <v>0.001509911497123539</v>
+        <v>0.001183519023470581</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3940610885620117</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.4856986403465271</v>
       </c>
       <c r="W162" t="n">
-        <v>0.06235846132040024</v>
+        <v>0.008397441357374191</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3914721012115479</v>
       </c>
       <c r="V163" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.9149505496025085</v>
       </c>
       <c r="W163" t="n">
-        <v>0.0001671804202487692</v>
+        <v>0.2740296721458435</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3906350135803223</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.9452396631240845</v>
       </c>
       <c r="W164" t="n">
-        <v>0.003968049306422472</v>
+        <v>0.3075863122940063</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3924970626831055</v>
       </c>
       <c r="V165" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.5225923657417297</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0001863973593572155</v>
+        <v>0.01692478731274605</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.450124979019165</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.895319402217865</v>
       </c>
       <c r="W166" t="n">
-        <v>0.0001958039065357298</v>
+        <v>0.1981980800628662</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3920059204101562</v>
       </c>
       <c r="V167" t="n">
-        <v>0.551541268825531</v>
+        <v>0.4863986372947693</v>
       </c>
       <c r="W167" t="n">
-        <v>0.0254515279084444</v>
+        <v>0.008909985423088074</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3911018371582031</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.4677519798278809</v>
       </c>
       <c r="W168" t="n">
-        <v>0.004434475675225258</v>
+        <v>0.00587524427101016</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.39444899559021</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.4805823564529419</v>
       </c>
       <c r="W169" t="n">
-        <v>0.03322697803378105</v>
+        <v>0.00741895567625761</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3998000621795654</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.9026305079460144</v>
       </c>
       <c r="W170" t="n">
-        <v>0.08121288567781448</v>
+        <v>0.2528384625911713</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3923919200897217</v>
       </c>
       <c r="V171" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.5102746486663818</v>
       </c>
       <c r="W171" t="n">
-        <v>0.1800692975521088</v>
+        <v>0.01389633771032095</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3932938575744629</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.5837039947509766</v>
       </c>
       <c r="W172" t="n">
-        <v>0.05184674635529518</v>
+        <v>0.03625601902604103</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3941750526428223</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.8661918044090271</v>
       </c>
       <c r="W173" t="n">
-        <v>0.003707318566739559</v>
+        <v>0.2227998077869415</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4129297733306885</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.4808055758476257</v>
       </c>
       <c r="W174" t="n">
-        <v>0.002816701075062156</v>
+        <v>0.004607124719768763</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3934879302978516</v>
       </c>
       <c r="V175" t="n">
-        <v>0.480756551027298</v>
+        <v>1.099064946174622</v>
       </c>
       <c r="W175" t="n">
-        <v>0.007615812122821808</v>
+        <v>0.4978389143943787</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3987851142883301</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.9407579302787781</v>
       </c>
       <c r="W176" t="n">
-        <v>0.06747137010097504</v>
+        <v>0.2937345206737518</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4127500057220459</v>
       </c>
       <c r="V177" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.4939322471618652</v>
       </c>
       <c r="W177" t="n">
-        <v>0.1632167994976044</v>
+        <v>0.006590556353330612</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3900389671325684</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.4804320931434631</v>
       </c>
       <c r="W178" t="n">
-        <v>0.03176764771342278</v>
+        <v>0.008170917630195618</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3949189186096191</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.4976596236228943</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0687095895409584</v>
+        <v>0.01055565290153027</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3938121795654297</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.5854524970054626</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0531592071056366</v>
+        <v>0.03672601282596588</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.403033971786499</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.4786037802696228</v>
       </c>
       <c r="W181" t="n">
-        <v>0.02220897190272808</v>
+        <v>0.005710795987397432</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8819780349731445</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.9154543280601501</v>
       </c>
       <c r="W182" t="n">
-        <v>0.06800401955842972</v>
+        <v>0.001120662200264633</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.907789945602417</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.9601101279258728</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1100310385227203</v>
+        <v>0.002737401518970728</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8680729866027832</v>
       </c>
       <c r="V184" t="n">
-        <v>0.475897878408432</v>
+        <v>0.8976879715919495</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1538013219833374</v>
+        <v>0.0008770473068580031</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8783891201019287</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.48292475938797</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1080663055181503</v>
+        <v>0.1563920676708221</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8684408664703369</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.9011604785919189</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2406994551420212</v>
+        <v>0.00107057299464941</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8954370021820068</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.4728406667709351</v>
       </c>
       <c r="W187" t="n">
-        <v>0.07368829846382141</v>
+        <v>0.1785876601934433</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8704550266265869</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.9641333222389221</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1362321525812149</v>
+        <v>0.008775623515248299</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8688759803771973</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.9250997304916382</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1722732335329056</v>
+        <v>0.003161109983921051</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8591442108154297</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.4753102660179138</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1793720722198486</v>
+        <v>0.1473284959793091</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9573700428009033</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4784620404243469</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1154793500900269</v>
+        <v>0.2293528765439987</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8688590526580811</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.5828724503517151</v>
       </c>
       <c r="W192" t="n">
-        <v>0.09941220283508301</v>
+        <v>0.08178833872079849</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8702609539031982</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.4820164442062378</v>
       </c>
       <c r="W193" t="n">
-        <v>0.09292846173048019</v>
+        <v>0.1507337987422943</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8677430152893066</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.510200560092926</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1709336340427399</v>
+        <v>0.127836599946022</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9192900657653809</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.529949963092804</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1344540268182755</v>
+        <v>0.1515857130289078</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.86232590675354</v>
       </c>
       <c r="V196" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.5300959348678589</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2229971587657928</v>
+        <v>0.1103767529129982</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8719251155853271</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.4826480150222778</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1567884236574173</v>
+        <v>0.1515366584062576</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.869563102722168</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.8970276713371277</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1590723246335983</v>
+        <v>0.0007543025421909988</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9221830368041992</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.9467623829841614</v>
       </c>
       <c r="W199" t="n">
-        <v>0.08860877901315689</v>
+        <v>0.0006041442393325269</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8622620105743408</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.8923295736312866</v>
       </c>
       <c r="W200" t="n">
-        <v>0.08577286452054977</v>
+        <v>0.000904058339074254</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8710739612579346</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.5042729377746582</v>
       </c>
       <c r="W201" t="n">
-        <v>0.05174560099840164</v>
+        <v>0.1345429867506027</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5169930458068848</v>
       </c>
       <c r="V202" t="n">
-        <v>0.56818687915802</v>
+        <v>0.5006099343299866</v>
       </c>
       <c r="W202" t="n">
-        <v>0.002620808547362685</v>
+        <v>0.0002684063510969281</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.514185905456543</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.8824651837348938</v>
       </c>
       <c r="W203" t="n">
-        <v>0.002307082992047071</v>
+        <v>0.1356296241283417</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5703630447387695</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.4831162691116333</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01080221869051456</v>
+        <v>0.007611999753862619</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5174400806427002</v>
       </c>
       <c r="V205" t="n">
-        <v>0.551414966583252</v>
+        <v>0.8983091115951538</v>
       </c>
       <c r="W205" t="n">
-        <v>0.001154292840510607</v>
+        <v>0.1450612246990204</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5218470096588135</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.4685329794883728</v>
       </c>
       <c r="W206" t="n">
-        <v>0.002215912798419595</v>
+        <v>0.002842385787516832</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5113370418548584</v>
       </c>
       <c r="V207" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.4952403903007507</v>
       </c>
       <c r="W207" t="n">
-        <v>0.01312563475221395</v>
+        <v>0.0002591022057458758</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5158228874206543</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.4684746265411377</v>
       </c>
       <c r="W208" t="n">
-        <v>0.003399743465706706</v>
+        <v>0.002241857815533876</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5713140964508057</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.4822088479995728</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01830329373478889</v>
+        <v>0.007939745672047138</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5198900699615479</v>
       </c>
       <c r="V210" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.9570449590682983</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01984825357794762</v>
+        <v>0.1911043971776962</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5200309753417969</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.4815638065338135</v>
       </c>
       <c r="W211" t="n">
-        <v>0.02823420986533165</v>
+        <v>0.001479723025113344</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5181660652160645</v>
       </c>
       <c r="V212" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.513374388217926</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01954074390232563</v>
+        <v>2.296016828040592e-05</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5195357799530029</v>
       </c>
       <c r="V213" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.5299408435821533</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01978575251996517</v>
+        <v>0.0001082653470803052</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5233030319213867</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.4828250408172607</v>
       </c>
       <c r="W214" t="n">
-        <v>0.001357885543256998</v>
+        <v>0.001638467772863805</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5211880207061768</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.4714118838310242</v>
       </c>
       <c r="W215" t="n">
-        <v>0.0009326327126473188</v>
+        <v>0.002477663801982999</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5218300819396973</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.8974489569664001</v>
       </c>
       <c r="W216" t="n">
-        <v>0.004050068557262421</v>
+        <v>0.1410895437002182</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5191562175750732</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.4807702302932739</v>
       </c>
       <c r="W217" t="n">
-        <v>0.002452715998515487</v>
+        <v>0.001473483978770673</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5160369873046875</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.9487478137016296</v>
       </c>
       <c r="W218" t="n">
-        <v>8.793935558060184e-05</v>
+        <v>0.1872386634349823</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.519726037979126</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.5825141668319702</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0002608994545880705</v>
+        <v>0.003942348994314671</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5710220336914062</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.4799706935882568</v>
       </c>
       <c r="W220" t="n">
-        <v>0.007576160132884979</v>
+        <v>0.008290346711874008</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5185480117797852</v>
       </c>
       <c r="V221" t="n">
-        <v>0.476378470659256</v>
+        <v>0.4963290095329285</v>
       </c>
       <c r="W221" t="n">
-        <v>0.00177827023435384</v>
+        <v>0.000493684085085988</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3894450664520264</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.9100998044013977</v>
       </c>
       <c r="W222" t="n">
-        <v>0.002784067764878273</v>
+        <v>0.2710813581943512</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3889369964599609</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.5111364126205444</v>
       </c>
       <c r="W223" t="n">
-        <v>0.08705099672079086</v>
+        <v>0.01493269763886929</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3900578022003174</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.8829390406608582</v>
       </c>
       <c r="W224" t="n">
-        <v>0.05662370473146439</v>
+        <v>0.242931917309761</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3894548416137695</v>
       </c>
       <c r="V225" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.5538167953491211</v>
       </c>
       <c r="W225" t="n">
-        <v>8.585800242144614e-05</v>
+        <v>0.02701485157012939</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4534618854522705</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.96417236328125</v>
       </c>
       <c r="W226" t="n">
-        <v>0.04146730154752731</v>
+        <v>0.2608251869678497</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3963561058044434</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.9463080763816833</v>
       </c>
       <c r="W227" t="n">
-        <v>0.0506061315536499</v>
+        <v>0.3024471700191498</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3967189788818359</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.9478225708007812</v>
       </c>
       <c r="W228" t="n">
-        <v>0.0239611379802227</v>
+        <v>0.3037151694297791</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3932778835296631</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4675278067588806</v>
       </c>
       <c r="W229" t="n">
-        <v>0.02599790878593922</v>
+        <v>0.005513051059097052</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3935949802398682</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.585810124874115</v>
       </c>
       <c r="W230" t="n">
-        <v>0.001805679174140096</v>
+        <v>0.03694666177034378</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3923270702362061</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.4793930053710938</v>
       </c>
       <c r="W231" t="n">
-        <v>0.004278606735169888</v>
+        <v>0.007580477278679609</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4489080905914307</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.866752564907074</v>
       </c>
       <c r="W232" t="n">
-        <v>0.03125925734639168</v>
+        <v>0.1745939999818802</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4101758003234863</v>
       </c>
       <c r="V233" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.5302419066429138</v>
       </c>
       <c r="W233" t="n">
-        <v>0.05012409389019012</v>
+        <v>0.01441586948931217</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3969268798828125</v>
       </c>
       <c r="V234" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.480843186378479</v>
       </c>
       <c r="W234" t="n">
-        <v>0.1221874579787254</v>
+        <v>0.007041946519166231</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3950700759887695</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.4683130383491516</v>
       </c>
       <c r="W235" t="n">
-        <v>0.002223090268671513</v>
+        <v>0.005364531651139259</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3972718715667725</v>
       </c>
       <c r="V236" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.5121343731880188</v>
       </c>
       <c r="W236" t="n">
-        <v>0.1756664365530014</v>
+        <v>0.01319339405745268</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3937051296234131</v>
       </c>
       <c r="V237" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.8736805319786072</v>
       </c>
       <c r="W237" t="n">
-        <v>0.1787455826997757</v>
+        <v>0.2303763926029205</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3919439315795898</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.5832414031028748</v>
       </c>
       <c r="W238" t="n">
-        <v>0.05059395730495453</v>
+        <v>0.03659472241997719</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4043810367584229</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.4896731376647949</v>
       </c>
       <c r="W239" t="n">
-        <v>0.04904816672205925</v>
+        <v>0.00727474270388484</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3899300098419189</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.9468746185302734</v>
       </c>
       <c r="W240" t="n">
-        <v>0.05556084588170052</v>
+        <v>0.3101873099803925</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3937091827392578</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.8802534341812134</v>
       </c>
       <c r="W241" t="n">
-        <v>0.05318840220570564</v>
+        <v>0.236725315451622</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8741559982299805</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.5047531127929688</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1726630926132202</v>
+        <v>0.1364584863185883</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8969101905822754</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.9316243529319763</v>
       </c>
       <c r="W243" t="n">
-        <v>0.05585487186908722</v>
+        <v>0.001205073087476194</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8844399452209473</v>
       </c>
       <c r="V244" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.5829330682754517</v>
       </c>
       <c r="W244" t="n">
-        <v>0.003753618337213993</v>
+        <v>0.09090639650821686</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.884005069732666</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.4862905144691467</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2006879448890686</v>
+        <v>0.1581768691539764</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8632850646972656</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.4751496911048889</v>
       </c>
       <c r="W246" t="n">
-        <v>0.0960877314209938</v>
+        <v>0.1506490707397461</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8892970085144043</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.8828430771827698</v>
       </c>
       <c r="W247" t="n">
-        <v>0.08317060023546219</v>
+        <v>4.165323116467334e-05</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8745551109313965</v>
       </c>
       <c r="V248" t="n">
-        <v>0.505409836769104</v>
+        <v>0.5827470421791077</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1362682282924652</v>
+        <v>0.08515194803476334</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8725440502166748</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.8947772979736328</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1047004833817482</v>
+        <v>0.0004943173262290657</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8593778610229492</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.4801400899887085</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1465647369623184</v>
+        <v>0.1438212841749191</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.9177348613739014</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4998355507850647</v>
       </c>
       <c r="W251" t="n">
-        <v>0.0855182558298111</v>
+        <v>0.1746398359537125</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8791618347167969</v>
       </c>
       <c r="V252" t="n">
-        <v>0.435836523771286</v>
+        <v>0.5846874117851257</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1965373307466507</v>
+        <v>0.08671518415212631</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8753988742828369</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.8768956065177917</v>
       </c>
       <c r="W253" t="n">
-        <v>0.09574276208877563</v>
+        <v>2.24020732275676e-06</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8689060211181641</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.4826990962028503</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1877347826957703</v>
+        <v>0.1491557955741882</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.9299039840698242</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.4786866903305054</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2439299374818802</v>
+        <v>0.2035970389842987</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8701260089874268</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.512342095375061</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1338386088609695</v>
+        <v>0.1280093342065811</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.874377965927124</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.4800135493278503</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1736819595098495</v>
+        <v>0.1555233001708984</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8652691841125488</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.8980525135993958</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1659172922372818</v>
+        <v>0.00107474671676755</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.9306130409240723</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.5299256443977356</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1432662159204483</v>
+        <v>0.1605503857135773</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8682229518890381</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.883032500743866</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1562452167272568</v>
+        <v>0.0002193227410316467</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8705630302429199</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.4975413084030151</v>
       </c>
       <c r="W261" t="n">
-        <v>0.170571967959404</v>
+        <v>0.1391452103853226</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5221869945526123</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.4777348041534424</v>
       </c>
       <c r="W262" t="n">
-        <v>0.0006757315713912249</v>
+        <v>0.001975997118279338</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5225579738616943</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.947767436504364</v>
       </c>
       <c r="W263" t="n">
-        <v>0.02050747163593769</v>
+        <v>0.1808030903339386</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5496118068695068</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.5213874578475952</v>
       </c>
       <c r="W264" t="n">
-        <v>0.005617052782326937</v>
+        <v>0.000796613865531981</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5234968662261963</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.897861123085022</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0108918771147728</v>
+        <v>0.1401485949754715</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.52093505859375</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.5043984055519104</v>
       </c>
       <c r="W266" t="n">
-        <v>0.007210437674075365</v>
+        <v>0.0002734609006438404</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5218210220336914</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.4779717326164246</v>
       </c>
       <c r="W267" t="n">
-        <v>0.007409271318465471</v>
+        <v>0.001922760158777237</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5265488624572754</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.4798468947410583</v>
       </c>
       <c r="W268" t="n">
-        <v>0.009517149068415165</v>
+        <v>0.002181073883548379</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5814778804779053</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.5030502080917358</v>
       </c>
       <c r="W269" t="n">
-        <v>0.0008014932973310351</v>
+        <v>0.006150899920612574</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5208179950714111</v>
       </c>
       <c r="V270" t="n">
-        <v>0.436014860868454</v>
+        <v>0.9438557028770447</v>
       </c>
       <c r="W270" t="n">
-        <v>0.007191571407020092</v>
+        <v>0.1789609044790268</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5226747989654541</v>
       </c>
       <c r="V271" t="n">
-        <v>0.56879723072052</v>
+        <v>0.4974839687347412</v>
       </c>
       <c r="W271" t="n">
-        <v>0.002127278596162796</v>
+        <v>0.0006345779402181506</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5375781059265137</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.8943888545036316</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01031255628913641</v>
+        <v>0.1273139119148254</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5214569568634033</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.8825876116752625</v>
       </c>
       <c r="W273" t="n">
-        <v>0.00430707260966301</v>
+        <v>0.1304153501987457</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5415711402893066</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.5543314814567566</v>
       </c>
       <c r="W274" t="n">
-        <v>0.005991572048515081</v>
+        <v>0.0001628263125894591</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5254440307617188</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.952040433883667</v>
       </c>
       <c r="W275" t="n">
-        <v>0.002172580687329173</v>
+        <v>0.1819844841957092</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5217421054840088</v>
       </c>
       <c r="V276" t="n">
-        <v>0.390147477388382</v>
+        <v>0.5538792610168457</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01731714606285095</v>
+        <v>0.001032796804793179</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5241010189056396</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.9404737949371338</v>
       </c>
       <c r="W277" t="n">
-        <v>0.009128788486123085</v>
+        <v>0.1733662933111191</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5220959186553955</v>
       </c>
       <c r="V278" t="n">
-        <v>0.812067985534668</v>
+        <v>0.8896963000297546</v>
       </c>
       <c r="W278" t="n">
-        <v>0.08408380299806595</v>
+        <v>0.1351300477981567</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5272500514984131</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.4970818161964417</v>
       </c>
       <c r="W279" t="n">
-        <v>0.003191187977790833</v>
+        <v>0.0009101224131882191</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5760009288787842</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.4861953854560852</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01026395428925753</v>
+        <v>0.008065035566687584</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5176501274108887</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.5028789639472961</v>
       </c>
       <c r="W281" t="n">
-        <v>0.003459134371951222</v>
+        <v>0.0002181872696382925</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4199678897857666</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.483077347278595</v>
       </c>
       <c r="W282" t="n">
-        <v>0.05097139254212379</v>
+        <v>0.003982803784310818</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4006869792938232</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.9164537787437439</v>
       </c>
       <c r="W283" t="n">
-        <v>0.004024606663733721</v>
+        <v>0.2660153806209564</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3958210945129395</v>
       </c>
       <c r="V284" t="n">
-        <v>0.630542516708374</v>
+        <v>0.9147252440452576</v>
       </c>
       <c r="W284" t="n">
-        <v>0.05509414523839951</v>
+        <v>0.269261509180069</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.400108814239502</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.4716390371322632</v>
       </c>
       <c r="W285" t="n">
-        <v>0.04883497580885887</v>
+        <v>0.005116572603583336</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4396119117736816</v>
       </c>
       <c r="V286" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.4787988066673279</v>
       </c>
       <c r="W286" t="n">
-        <v>0.003281733021140099</v>
+        <v>0.001535612740553916</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4000639915466309</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.9078760743141174</v>
       </c>
       <c r="W287" t="n">
-        <v>0.0419086255133152</v>
+        <v>0.2578731179237366</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3995819091796875</v>
       </c>
       <c r="V288" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.4785575866699219</v>
       </c>
       <c r="W288" t="n">
-        <v>0.04816112667322159</v>
+        <v>0.006237157620489597</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4052491188049316</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.4986061453819275</v>
       </c>
       <c r="W289" t="n">
-        <v>0.0479133315384388</v>
+        <v>0.008715534582734108</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3960039615631104</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.9219908118247986</v>
       </c>
       <c r="W290" t="n">
-        <v>0.06389734894037247</v>
+        <v>0.2766621708869934</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3953230381011963</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.5141501426696777</v>
       </c>
       <c r="W291" t="n">
-        <v>0.08397653698921204</v>
+        <v>0.01411988120526075</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4610579013824463</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.4948301911354065</v>
       </c>
       <c r="W292" t="n">
-        <v>0.002271065954118967</v>
+        <v>0.001140567590482533</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3997929096221924</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.4824454784393311</v>
       </c>
       <c r="W293" t="n">
-        <v>0.005125658120959997</v>
+        <v>0.006831447128206491</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4024639129638672</v>
       </c>
       <c r="V294" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4964196085929871</v>
       </c>
       <c r="W294" t="n">
-        <v>0.02530643716454506</v>
+        <v>0.008827672339975834</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3928940296173096</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.8797505497932434</v>
       </c>
       <c r="W295" t="n">
-        <v>0.07858394086360931</v>
+        <v>0.2370292693376541</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3961861133575439</v>
       </c>
       <c r="V296" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.5034990310668945</v>
       </c>
       <c r="W296" t="n">
-        <v>0.1763123571872711</v>
+        <v>0.01151606254279613</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4044020175933838</v>
       </c>
       <c r="V297" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.9846066236495972</v>
       </c>
       <c r="W297" t="n">
-        <v>0.1661138981580734</v>
+        <v>0.3366373777389526</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4242048263549805</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.4676855206489563</v>
       </c>
       <c r="W298" t="n">
-        <v>0.002400190569460392</v>
+        <v>0.00189057074021548</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3963778018951416</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.5323135256767273</v>
       </c>
       <c r="W299" t="n">
-        <v>0.00553769851103425</v>
+        <v>0.01847852021455765</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4069781303405762</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.9017854928970337</v>
       </c>
       <c r="W300" t="n">
-        <v>0.04597346484661102</v>
+        <v>0.2448343187570572</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3979349136352539</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.8988974690437317</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0005029111634939909</v>
+        <v>0.2509634792804718</v>
       </c>
     </row>
     <row r="302" spans="1:23">
